--- a/app/Licenciatura_em_Engenharia_Civil_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Engenharia_Civil_Pos_Laboral.xlsx
@@ -39,29 +39,28 @@
     <sheet name="20151630" sheetId="29" r:id="rId32"/>
     <sheet name="20151656" sheetId="30" r:id="rId33"/>
     <sheet name="20151641" sheetId="31" r:id="rId34"/>
-    <sheet name="20154427" sheetId="32" r:id="rId35"/>
-    <sheet name="20151645" sheetId="33" r:id="rId36"/>
-    <sheet name="20151629" sheetId="34" r:id="rId37"/>
-    <sheet name="20151657" sheetId="35" r:id="rId38"/>
-    <sheet name="20151647" sheetId="36" r:id="rId39"/>
-    <sheet name="20151660" sheetId="37" r:id="rId40"/>
-    <sheet name="20151623" sheetId="38" r:id="rId41"/>
-    <sheet name="20151628" sheetId="39" r:id="rId42"/>
-    <sheet name="20151615" sheetId="40" r:id="rId43"/>
-    <sheet name="20151622" sheetId="41" r:id="rId44"/>
-    <sheet name="20151631" sheetId="42" r:id="rId45"/>
-    <sheet name="20151619" sheetId="43" r:id="rId46"/>
-    <sheet name="20151659" sheetId="44" r:id="rId47"/>
-    <sheet name="20151662" sheetId="45" r:id="rId48"/>
-    <sheet name="20151616" sheetId="46" r:id="rId49"/>
-    <sheet name="20151618" sheetId="47" r:id="rId50"/>
-    <sheet name="20151635" sheetId="48" r:id="rId51"/>
-    <sheet name="20151655" sheetId="49" r:id="rId52"/>
-    <sheet name="20151652" sheetId="50" r:id="rId53"/>
-    <sheet name="20151640" sheetId="51" r:id="rId54"/>
-    <sheet name="20151646" sheetId="52" r:id="rId55"/>
-    <sheet name="Sheet2" sheetId="53" r:id="rId56"/>
-    <sheet name="Sheet3" sheetId="54" r:id="rId57"/>
+    <sheet name="20151645" sheetId="32" r:id="rId35"/>
+    <sheet name="20151629" sheetId="33" r:id="rId36"/>
+    <sheet name="20151657" sheetId="34" r:id="rId37"/>
+    <sheet name="20151647" sheetId="35" r:id="rId38"/>
+    <sheet name="20151660" sheetId="36" r:id="rId39"/>
+    <sheet name="20151623" sheetId="37" r:id="rId40"/>
+    <sheet name="20151628" sheetId="38" r:id="rId41"/>
+    <sheet name="20151615" sheetId="39" r:id="rId42"/>
+    <sheet name="20151622" sheetId="40" r:id="rId43"/>
+    <sheet name="20151631" sheetId="41" r:id="rId44"/>
+    <sheet name="20151619" sheetId="42" r:id="rId45"/>
+    <sheet name="20151659" sheetId="43" r:id="rId46"/>
+    <sheet name="20151662" sheetId="44" r:id="rId47"/>
+    <sheet name="20151616" sheetId="45" r:id="rId48"/>
+    <sheet name="20151618" sheetId="46" r:id="rId49"/>
+    <sheet name="20151635" sheetId="47" r:id="rId50"/>
+    <sheet name="20151655" sheetId="48" r:id="rId51"/>
+    <sheet name="20151652" sheetId="49" r:id="rId52"/>
+    <sheet name="20151640" sheetId="50" r:id="rId53"/>
+    <sheet name="20151646" sheetId="51" r:id="rId54"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="409">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -218,9 +217,6 @@
     <t>Luisa Aminosse Uaiene</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -257,9 +253,6 @@
     <t>Guilhermina Joanisse Tima</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102313028B</t>
   </si>
   <si>
@@ -284,9 +277,6 @@
     <t>Ernestina Amaral Da Silva</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100198837B</t>
   </si>
   <si>
@@ -311,9 +301,6 @@
     <t>Uwimana Esperanca</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101995514P</t>
   </si>
   <si>
@@ -338,9 +325,6 @@
     <t>Joaneta Mabote</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>0601026959114B</t>
   </si>
   <si>
@@ -410,9 +394,6 @@
     <t>Anita Nhaca</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110300073605J</t>
   </si>
   <si>
@@ -437,9 +418,6 @@
     <t>Safira Nlizete S. Macia</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -491,9 +469,6 @@
     <t>Gilda Eduardo Chau</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>090100240550P</t>
   </si>
   <si>
@@ -557,9 +532,6 @@
     <t>Florentina Xavier Banze</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110501969250J</t>
   </si>
   <si>
@@ -884,9 +856,6 @@
     <t>Florentina Obede Langa</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110500830778C</t>
   </si>
   <si>
@@ -914,181 +883,175 @@
     <t>+258842290951</t>
   </si>
   <si>
-    <t>Khomo</t>
-  </si>
-  <si>
-    <t>Luis Paulo</t>
+    <t>Jone</t>
+  </si>
+  <si>
+    <t>Joao Domingos</t>
+  </si>
+  <si>
+    <t>1989-02-03</t>
+  </si>
+  <si>
+    <t>Domingos Jone</t>
+  </si>
+  <si>
+    <t>Zita Jose</t>
+  </si>
+  <si>
+    <t>110100510338J</t>
+  </si>
+  <si>
+    <t>+258824059748</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Matola</t>
+  </si>
+  <si>
+    <t>Joaquim</t>
+  </si>
+  <si>
+    <t>Rui Fenando Joaquim Junior</t>
+  </si>
+  <si>
+    <t>1997-12-07</t>
+  </si>
+  <si>
+    <t>Rui Fernando Joaquim</t>
+  </si>
+  <si>
+    <t>Lucia P. Mate Joaquim</t>
+  </si>
+  <si>
+    <t>110104808613A</t>
+  </si>
+  <si>
+    <t>+258824129217</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>Constatino Manuel</t>
+  </si>
+  <si>
+    <t>1990-02-17</t>
+  </si>
+  <si>
+    <t>Manuel Joao Agostinho</t>
+  </si>
+  <si>
+    <t>Angelina Julio Ramos</t>
+  </si>
+  <si>
+    <t>040100159471B</t>
+  </si>
+  <si>
+    <t>+258849496568</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurelio Gerente </t>
+  </si>
+  <si>
+    <t>1983-02-25</t>
+  </si>
+  <si>
+    <t>Gerente Gustavo</t>
+  </si>
+  <si>
+    <t>Rocina Rangane Zefanias</t>
+  </si>
+  <si>
+    <t>110101959664A</t>
+  </si>
+  <si>
+    <t>+258827869616</t>
+  </si>
+  <si>
+    <t>Instituto Industrial e Comercial da Beira</t>
+  </si>
+  <si>
+    <t>Gomane</t>
+  </si>
+  <si>
+    <t>Jose Tomas Agostinho</t>
+  </si>
+  <si>
+    <t>1991-11-10</t>
+  </si>
+  <si>
+    <t>Agostinho Antonio Gomane</t>
+  </si>
+  <si>
+    <t>Helena Faustino Dimande</t>
+  </si>
+  <si>
+    <t>Passaporte</t>
+  </si>
+  <si>
+    <t>AF017621</t>
+  </si>
+  <si>
+    <t>+258820885780</t>
+  </si>
+  <si>
+    <t>Da Silva</t>
+  </si>
+  <si>
+    <t>Momina António</t>
+  </si>
+  <si>
+    <t>1995-09-12</t>
+  </si>
+  <si>
+    <t>AntÓnio JosÉ Duarte Da Silva</t>
+  </si>
+  <si>
+    <t>Margarida C. R. D. Silva</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>110100050037P</t>
+  </si>
+  <si>
+    <t>+258844828845</t>
+  </si>
+  <si>
+    <t>Liceu Polana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumbane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TomÁs AmÓs Bengo </t>
+  </si>
+  <si>
+    <t>1990-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmÓs Fernando Bengo Cumbane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lomina AntÓnio Boaze </t>
+  </si>
+  <si>
+    <t>100101027291N</t>
+  </si>
+  <si>
+    <t>+258823782873</t>
+  </si>
+  <si>
+    <t>Cuinhane</t>
+  </si>
+  <si>
+    <t>Syntheo Valdy</t>
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>Jone</t>
-  </si>
-  <si>
-    <t>Joao Domingos</t>
-  </si>
-  <si>
-    <t>1989-02-03</t>
-  </si>
-  <si>
-    <t>Domingos Jone</t>
-  </si>
-  <si>
-    <t>Zita Jose</t>
-  </si>
-  <si>
-    <t>110100510338J</t>
-  </si>
-  <si>
-    <t>+258824059748</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Joaquim</t>
-  </si>
-  <si>
-    <t>Rui Fenando Joaquim Junior</t>
-  </si>
-  <si>
-    <t>1997-12-07</t>
-  </si>
-  <si>
-    <t>Rui Fernando Joaquim</t>
-  </si>
-  <si>
-    <t>Lucia P. Mate Joaquim</t>
-  </si>
-  <si>
-    <t>110104808613A</t>
-  </si>
-  <si>
-    <t>+258824129217</t>
-  </si>
-  <si>
-    <t>Joao</t>
-  </si>
-  <si>
-    <t>Constatino Manuel</t>
-  </si>
-  <si>
-    <t>1990-02-17</t>
-  </si>
-  <si>
-    <t>Manuel Joao Agostinho</t>
-  </si>
-  <si>
-    <t>Angelina Julio Ramos</t>
-  </si>
-  <si>
-    <t>040100159471B</t>
-  </si>
-  <si>
-    <t>+258849496568</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurelio Gerente </t>
-  </si>
-  <si>
-    <t>1983-02-25</t>
-  </si>
-  <si>
-    <t>Gerente Gustavo</t>
-  </si>
-  <si>
-    <t>Rocina Rangane Zefanias</t>
-  </si>
-  <si>
-    <t>110101959664A</t>
-  </si>
-  <si>
-    <t>+258827869616</t>
-  </si>
-  <si>
-    <t>Instituto Industrial e Comercial da Beira</t>
-  </si>
-  <si>
-    <t>Gomane</t>
-  </si>
-  <si>
-    <t>Jose Tomas Agostinho</t>
-  </si>
-  <si>
-    <t>1991-11-10</t>
-  </si>
-  <si>
-    <t>Agostinho Antonio Gomane</t>
-  </si>
-  <si>
-    <t>Helena Faustino Dimande</t>
-  </si>
-  <si>
-    <t>Passaporte</t>
-  </si>
-  <si>
-    <t>AF017621</t>
-  </si>
-  <si>
-    <t>+258820885780</t>
-  </si>
-  <si>
-    <t>Da Silva</t>
-  </si>
-  <si>
-    <t>Momina António</t>
-  </si>
-  <si>
-    <t>1995-09-12</t>
-  </si>
-  <si>
-    <t>AntÓnio JosÉ Duarte Da Silva</t>
-  </si>
-  <si>
-    <t>Margarida C. R. D. Silva</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110100050037P</t>
-  </si>
-  <si>
-    <t>+258844828845</t>
-  </si>
-  <si>
-    <t>Liceu Polana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumbane </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TomÁs AmÓs Bengo </t>
-  </si>
-  <si>
-    <t>1990-02-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmÓs Fernando Bengo Cumbane </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lomina AntÓnio Boaze </t>
-  </si>
-  <si>
-    <t>100101027291N</t>
-  </si>
-  <si>
-    <t>+258823782873</t>
-  </si>
-  <si>
-    <t>Cuinhane</t>
-  </si>
-  <si>
-    <t>Syntheo Valdy</t>
   </si>
   <si>
     <t>Come</t>
@@ -2591,7 +2554,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2607,7 +2570,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2623,7 +2586,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2639,7 +2602,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2655,7 +2618,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2670,9 +2633,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2680,7 +2641,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2691,7 +2652,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2700,7 +2661,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2712,7 +2673,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2816,7 +2777,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2859,7 +2820,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3186,7 +3147,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3202,7 +3163,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3218,7 +3179,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3234,7 +3195,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3250,7 +3211,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3265,9 +3226,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3275,7 +3234,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3286,7 +3245,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3295,7 +3254,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3307,7 +3266,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3315,7 +3274,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3411,7 +3370,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3454,7 +3413,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3781,7 +3740,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3797,7 +3756,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3813,7 +3772,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3829,7 +3788,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3845,7 +3804,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3860,9 +3819,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3870,7 +3827,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3881,7 +3838,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3890,7 +3847,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3902,7 +3859,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3910,7 +3867,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4006,7 +3963,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4049,7 +4006,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4376,7 +4333,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4392,7 +4349,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4408,7 +4365,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4424,7 +4381,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4440,7 +4397,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4455,9 +4412,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4465,7 +4420,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4476,7 +4431,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4485,7 +4440,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4497,7 +4452,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4601,7 +4556,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4644,7 +4599,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4971,7 +4926,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4987,7 +4942,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5003,7 +4958,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5019,7 +4974,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5035,7 +4990,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5050,9 +5005,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5060,7 +5013,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5071,7 +5024,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5080,7 +5033,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5092,7 +5045,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5100,7 +5053,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5196,7 +5149,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5239,7 +5192,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5566,7 +5519,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5582,7 +5535,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5598,7 +5551,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5614,7 +5567,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5630,7 +5583,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5645,9 +5598,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5655,7 +5606,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5666,7 +5617,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5675,7 +5626,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5687,7 +5638,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5695,7 +5646,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5791,7 +5742,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5834,7 +5785,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6161,7 +6112,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6177,7 +6128,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6193,7 +6144,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6209,7 +6160,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6225,7 +6176,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6240,9 +6191,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6250,7 +6199,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6261,7 +6210,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6270,7 +6219,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6282,7 +6231,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6290,7 +6239,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6386,7 +6335,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6429,7 +6378,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6756,7 +6705,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6772,7 +6721,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6788,7 +6737,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6804,7 +6753,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6820,7 +6769,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6835,9 +6784,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6845,7 +6792,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6856,7 +6803,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6865,7 +6812,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6877,7 +6824,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6885,7 +6832,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6981,7 +6928,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7024,7 +6971,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7351,7 +7298,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7367,7 +7314,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7383,7 +7330,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7399,7 +7346,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7415,7 +7362,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7430,9 +7377,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7440,7 +7385,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7451,7 +7396,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7460,7 +7405,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7472,7 +7417,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7576,7 +7521,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7619,7 +7564,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7946,7 +7891,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7962,7 +7907,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7978,7 +7923,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7994,7 +7939,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8010,7 +7955,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8025,9 +7970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8035,7 +7978,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8046,7 +7989,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8055,7 +7998,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8067,7 +8010,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8075,7 +8018,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8171,7 +8114,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8214,7 +8157,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8620,9 +8563,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8630,7 +8571,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8641,7 +8582,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8650,7 +8591,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8662,7 +8603,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8670,7 +8611,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8766,7 +8707,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8809,7 +8750,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9136,7 +9077,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9152,7 +9093,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9168,7 +9109,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9184,7 +9125,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9200,7 +9141,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9215,9 +9156,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9225,7 +9164,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9236,7 +9175,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9245,7 +9184,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9257,7 +9196,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9265,7 +9204,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9361,7 +9300,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9404,7 +9343,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9731,7 +9670,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9747,7 +9686,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9763,7 +9702,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9779,7 +9718,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9795,7 +9734,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9810,9 +9749,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9820,7 +9757,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9831,7 +9768,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9840,7 +9777,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9852,7 +9789,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9860,7 +9797,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9956,7 +9893,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9999,7 +9936,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10326,7 +10263,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10342,7 +10279,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10358,7 +10295,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10374,7 +10311,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10390,7 +10327,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10405,9 +10342,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10415,7 +10350,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10426,7 +10361,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10435,7 +10370,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10447,7 +10382,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10455,7 +10390,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10551,7 +10486,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10594,7 +10529,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10921,7 +10856,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10937,7 +10872,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10953,7 +10888,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10969,7 +10904,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10985,7 +10920,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11000,9 +10935,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11010,7 +10943,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11021,7 +10954,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11030,7 +10963,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11042,7 +10975,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11050,7 +10983,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11146,7 +11079,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11189,7 +11122,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11516,7 +11449,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11532,7 +11465,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11548,7 +11481,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11564,7 +11497,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11580,7 +11513,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11595,9 +11528,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11605,7 +11536,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11616,7 +11547,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11625,7 +11556,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11637,7 +11568,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11645,7 +11576,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11741,7 +11672,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11784,7 +11715,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12111,7 +12042,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12127,7 +12058,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12143,7 +12074,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12159,7 +12090,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12175,7 +12106,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12190,9 +12121,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12200,7 +12129,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12211,7 +12140,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12220,7 +12149,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12232,7 +12161,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12240,7 +12169,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12336,7 +12265,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12379,7 +12308,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12706,7 +12635,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12722,7 +12651,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12738,7 +12667,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12754,7 +12683,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12770,7 +12699,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12785,9 +12714,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12795,7 +12722,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12806,7 +12733,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12815,7 +12742,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12827,7 +12754,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12835,7 +12762,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12931,7 +12858,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12974,7 +12901,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13301,7 +13228,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13317,7 +13244,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13333,7 +13260,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13349,7 +13276,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13365,7 +13292,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13380,9 +13307,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13390,7 +13315,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13401,7 +13326,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13410,7 +13335,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13422,7 +13347,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13430,7 +13355,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13526,7 +13451,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13569,7 +13494,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13896,7 +13821,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13912,7 +13837,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13928,7 +13853,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13944,7 +13869,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13960,7 +13885,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13975,9 +13900,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13985,7 +13908,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13996,7 +13919,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14005,7 +13928,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14017,7 +13940,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14025,7 +13948,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14121,7 +14044,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14164,7 +14087,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14491,7 +14414,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14507,7 +14430,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14523,7 +14446,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14539,7 +14462,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14555,7 +14478,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14570,9 +14493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14580,7 +14501,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14591,7 +14512,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14600,7 +14521,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14612,7 +14533,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14620,7 +14541,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14716,7 +14637,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14759,7 +14680,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15086,7 +15007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15102,7 +15023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15118,7 +15039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15134,7 +15055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15150,7 +15071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15165,9 +15086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15175,7 +15094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15186,7 +15105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15195,7 +15114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15207,7 +15126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15215,7 +15134,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15311,7 +15230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15354,7 +15273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15681,7 +15600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15697,7 +15616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15713,7 +15632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15729,7 +15648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15745,7 +15664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15760,9 +15679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>271</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15770,7 +15687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15781,7 +15698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15790,7 +15707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15802,7 +15719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15810,7 +15727,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15906,7 +15823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15949,7 +15866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16276,7 +16193,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16292,7 +16209,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16308,7 +16225,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16324,7 +16241,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16340,7 +16257,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16355,9 +16272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16365,7 +16280,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16376,7 +16291,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16385,7 +16300,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16397,7 +16312,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16405,7 +16320,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16501,7 +16416,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16544,7 +16459,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16795,7 +16710,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -16845,7 +16762,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154427</v>
+        <v>20151645</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16869,7 +16786,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16885,7 +16802,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16900,7 +16817,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16914,7 +16833,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16928,7 +16849,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16949,7 +16872,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -16958,14 +16883,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -16975,13 +16904,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17076,7 +17009,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17102,7 +17035,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17116,7 +17051,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17418,7 +17355,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151645</v>
+        <v>20151629</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17442,7 +17379,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17458,7 +17395,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17474,7 +17411,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17490,7 +17427,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17506,7 +17443,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17521,9 +17458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17531,7 +17466,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17542,7 +17477,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17551,7 +17486,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17563,7 +17498,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17571,7 +17506,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17667,7 +17602,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17694,7 +17629,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17710,7 +17645,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18013,7 +17948,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151629</v>
+        <v>20151657</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18037,7 +17972,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18053,7 +17988,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18069,7 +18004,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18085,7 +18020,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18101,7 +18036,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18116,9 +18051,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18126,7 +18059,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18137,7 +18070,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18146,7 +18079,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18158,7 +18091,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18166,7 +18099,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18262,7 +18195,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18305,7 +18238,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18608,7 +18541,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151657</v>
+        <v>20151647</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18632,7 +18565,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18648,7 +18581,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18664,7 +18597,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18680,7 +18613,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18696,7 +18629,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18711,9 +18644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18721,7 +18652,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18732,7 +18663,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18741,7 +18672,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18753,7 +18684,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18761,7 +18692,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18857,7 +18788,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18884,7 +18815,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18900,7 +18831,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19203,7 +19134,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151647</v>
+        <v>20151660</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19227,7 +19158,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19243,7 +19174,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19259,7 +19190,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19275,7 +19206,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19291,7 +19222,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19306,9 +19237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19316,7 +19245,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19327,7 +19256,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19336,7 +19265,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19348,7 +19277,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19356,7 +19285,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19452,7 +19381,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19479,7 +19408,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19495,7 +19424,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>313</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19798,7 +19727,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151660</v>
+        <v>20151623</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19822,7 +19751,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19838,7 +19767,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19854,7 +19783,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19870,7 +19799,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19886,7 +19815,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19901,9 +19830,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19911,7 +19838,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>314</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19922,7 +19849,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19931,7 +19858,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19943,7 +19870,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19951,7 +19878,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20047,7 +19974,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20090,7 +20017,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20393,7 +20320,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151623</v>
+        <v>20151628</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20417,7 +20344,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20433,7 +20360,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20449,7 +20376,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20465,7 +20392,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20481,7 +20408,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20496,9 +20423,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20506,7 +20431,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>327</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20517,7 +20442,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20526,7 +20451,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20538,7 +20463,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20546,7 +20471,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20642,7 +20567,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20669,7 +20594,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20685,7 +20610,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20988,7 +20913,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151628</v>
+        <v>20151615</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21012,7 +20937,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21028,7 +20953,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21043,9 +20968,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>333</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -21059,9 +20982,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>334</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -21075,9 +20996,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>335</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -21091,18 +21010,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -21111,18 +21026,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -21132,17 +21043,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>336</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -21237,7 +21144,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21263,9 +21170,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2009</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -21279,9 +21184,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>291</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21607,7 +21510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21623,7 +21526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21639,7 +21542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21655,7 +21558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21671,7 +21574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21686,9 +21589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21696,7 +21597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21707,7 +21608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21716,7 +21617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21728,7 +21629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21736,7 +21637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21832,7 +21733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21875,7 +21776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22178,7 +22079,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151615</v>
+        <v>20151622</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22202,7 +22103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22218,7 +22119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22233,7 +22134,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>330</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -22247,7 +22150,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -22261,7 +22166,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -22282,7 +22189,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -22291,14 +22200,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -22308,13 +22221,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>333</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -22409,7 +22326,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22435,7 +22352,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -22449,7 +22368,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -22751,7 +22672,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151622</v>
+        <v>20151631</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22775,7 +22696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22791,7 +22712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22807,7 +22728,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22823,7 +22744,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22839,7 +22760,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22854,9 +22775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22864,7 +22783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22875,7 +22794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22884,7 +22803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22896,7 +22815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22904,7 +22823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23000,7 +22919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23027,7 +22946,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23043,7 +22962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23346,7 +23265,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151631</v>
+        <v>20151619</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23370,7 +23289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23386,7 +23305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23402,7 +23321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>276</v>
+        <v>345</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23418,7 +23337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23434,7 +23353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23449,9 +23368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23459,7 +23376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23470,7 +23387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23479,7 +23396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23491,7 +23408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23499,7 +23416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23595,7 +23512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23622,7 +23539,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23638,7 +23555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23941,7 +23858,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151619</v>
+        <v>20151659</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23965,7 +23882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23981,7 +23898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23997,7 +23914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24013,7 +23930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24029,7 +23946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24044,9 +23961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24054,7 +23969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24065,7 +23980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24074,7 +23989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24086,7 +24001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24094,7 +24009,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24190,7 +24105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24217,7 +24132,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24233,7 +24148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24536,7 +24451,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151659</v>
+        <v>20151662</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24560,7 +24475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24576,7 +24491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24592,7 +24507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24608,7 +24523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24624,7 +24539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24639,9 +24554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24649,7 +24562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24660,7 +24573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24669,7 +24582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24681,7 +24594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24689,7 +24602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24785,7 +24698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24812,7 +24725,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24828,7 +24741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25131,7 +25044,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151662</v>
+        <v>20151616</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25155,7 +25068,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25171,7 +25084,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25186,9 +25099,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>371</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -25202,9 +25113,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>372</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -25218,9 +25127,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>373</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -25234,18 +25141,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -25254,18 +25157,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -25275,17 +25174,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>374</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -25380,7 +25275,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25406,9 +25301,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -25422,9 +25315,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -25726,7 +25617,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151616</v>
+        <v>20151618</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25750,7 +25641,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25766,7 +25657,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25781,7 +25672,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>368</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -25795,7 +25688,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>369</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -25809,7 +25704,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -25830,7 +25727,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -25839,14 +25738,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -25856,13 +25759,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>371</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -25957,7 +25864,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25983,7 +25890,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -25997,7 +25906,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -26299,7 +26210,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151618</v>
+        <v>20151635</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26323,7 +26234,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26339,7 +26250,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26355,7 +26266,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26371,7 +26282,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26387,7 +26298,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26402,9 +26313,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26412,7 +26321,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26423,7 +26332,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26432,7 +26341,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26444,7 +26353,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26452,7 +26361,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26548,7 +26457,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26575,7 +26484,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26591,7 +26500,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>385</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26894,7 +26803,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151635</v>
+        <v>20151655</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26918,7 +26827,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26934,7 +26843,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26950,7 +26859,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26966,7 +26875,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26982,7 +26891,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26997,9 +26906,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27007,7 +26914,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27018,7 +26925,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27027,7 +26934,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27039,7 +26946,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27047,7 +26954,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27143,7 +27050,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27170,7 +27077,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -27186,7 +27093,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27489,7 +27396,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151655</v>
+        <v>20151652</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27513,7 +27420,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27529,7 +27436,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27545,7 +27452,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27561,7 +27468,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27577,7 +27484,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27592,9 +27499,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27602,7 +27507,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>314</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27613,7 +27518,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27622,7 +27527,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27634,7 +27539,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27642,7 +27547,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27738,7 +27643,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27781,7 +27686,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28108,7 +28013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28124,7 +28029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28140,7 +28045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28156,7 +28061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28172,7 +28077,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28187,9 +28092,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28197,7 +28100,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28208,7 +28111,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28217,7 +28120,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28229,7 +28132,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28237,7 +28140,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28333,7 +28236,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28376,7 +28279,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28679,7 +28582,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151652</v>
+        <v>20151640</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28703,7 +28606,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28719,7 +28622,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28735,7 +28638,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28751,7 +28654,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28767,7 +28670,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28782,9 +28685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28792,7 +28693,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28803,7 +28704,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28812,7 +28713,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28824,7 +28725,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28832,7 +28733,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28928,7 +28829,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28955,7 +28856,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28971,7 +28872,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29274,7 +29175,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151640</v>
+        <v>20151646</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29298,7 +29199,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29314,7 +29215,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29330,7 +29231,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29346,7 +29247,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29362,7 +29263,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29377,9 +29278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29387,7 +29286,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29398,7 +29297,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29407,7 +29306,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29419,7 +29318,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29427,7 +29326,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29523,7 +29422,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29550,7 +29449,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29566,7 +29465,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>347</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29769,601 +29668,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151646</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>420</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -30387,7 +29691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30544,7 +29848,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30560,7 +29864,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30576,7 +29880,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30592,7 +29896,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30608,7 +29912,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30623,9 +29927,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30633,7 +29935,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30644,7 +29946,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30653,7 +29955,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30665,7 +29967,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30673,7 +29975,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30769,7 +30071,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30812,7 +30114,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31139,7 +30441,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31155,7 +30457,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31171,7 +30473,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31187,7 +30489,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31203,7 +30505,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31218,9 +30520,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31228,7 +30528,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31239,7 +30539,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31248,7 +30548,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31260,7 +30560,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31268,7 +30568,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31364,7 +30664,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31407,7 +30707,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31734,7 +31034,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31750,7 +31050,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31766,7 +31066,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31782,7 +31082,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31798,7 +31098,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31813,9 +31113,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31823,7 +31121,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31834,7 +31132,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31843,7 +31141,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31855,7 +31153,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31863,7 +31161,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31959,7 +31257,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32002,7 +31300,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32329,7 +31627,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32345,7 +31643,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32361,7 +31659,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32377,7 +31675,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32393,7 +31691,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32408,9 +31706,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32418,7 +31714,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32429,7 +31725,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32438,7 +31734,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32450,7 +31746,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32458,7 +31754,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32554,7 +31850,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32597,7 +31893,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
